--- a/arduino lcd bin2hex.xlsx
+++ b/arduino lcd bin2hex.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
   <si>
     <t>BIN</t>
   </si>
@@ -848,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,29 +971,29 @@
         <v>0</v>
       </c>
       <c r="P2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="str">
         <f>CONCATENATE(N2,O2,P2,Q2,R2)</f>
-        <v>00111</v>
+        <v>00000</v>
       </c>
       <c r="U2" t="str">
         <f>BIN2HEX(T2)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <f>BIN2DEC(T2)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W2" s="11" t="str">
         <f>CONCATENATE("B",N2,O2,P2,Q2,R2,",")</f>
-        <v>B00111,</v>
+        <v>B00000,</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1047,23 +1047,23 @@
         <v>1</v>
       </c>
       <c r="R3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" ref="T3:T9" si="4">CONCATENATE(N3,O3,P3,Q3,R3)</f>
-        <v>01111</v>
+        <v>01110</v>
       </c>
       <c r="U3" t="str">
         <f t="shared" ref="U3:U9" si="5">BIN2HEX(T3)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V9" si="6">BIN2DEC(T3)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W3" s="11" t="str">
         <f t="shared" ref="W3:W9" si="7">CONCATENATE("B",N3,O3,P3,Q3,R3,",")</f>
-        <v>B01111,</v>
+        <v>B01110,</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1105,35 +1105,35 @@
         <v>3</v>
       </c>
       <c r="N4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6">
         <v>1</v>
       </c>
       <c r="P4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6">
         <v>1</v>
       </c>
       <c r="R4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
-        <v>11111</v>
+        <v>01010</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" si="5"/>
-        <v>1F</v>
+        <v>A</v>
       </c>
       <c r="V4">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="W4" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>B11111,</v>
+        <v>B01010,</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1175,35 +1175,35 @@
         <v>4</v>
       </c>
       <c r="N5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="6">
         <v>1</v>
       </c>
       <c r="P5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="6">
         <v>1</v>
       </c>
       <c r="R5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="4"/>
-        <v>11111</v>
+        <v>01010</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="5"/>
-        <v>1F</v>
+        <v>A</v>
       </c>
       <c r="V5">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="W5" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>B11111,</v>
+        <v>B01010,</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1245,35 +1245,35 @@
         <v>5</v>
       </c>
       <c r="N6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="6">
         <v>1</v>
       </c>
       <c r="P6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="6">
         <v>1</v>
       </c>
       <c r="R6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="4"/>
-        <v>11111</v>
+        <v>01010</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="5"/>
-        <v>1F</v>
+        <v>A</v>
       </c>
       <c r="V6">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="W6" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>B11111,</v>
+        <v>B01010,</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1315,35 +1315,35 @@
         <v>6</v>
       </c>
       <c r="N7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="6">
         <v>1</v>
       </c>
       <c r="P7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="6">
         <v>1</v>
       </c>
       <c r="R7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="4"/>
-        <v>11111</v>
+        <v>01010</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="5"/>
-        <v>1F</v>
+        <v>A</v>
       </c>
       <c r="V7">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="W7" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>B11111,</v>
+        <v>B01010,</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1385,7 +1385,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -1397,23 +1397,23 @@
         <v>1</v>
       </c>
       <c r="R8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="4"/>
-        <v>11111</v>
+        <v>01110</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="5"/>
-        <v>1F</v>
+        <v>E</v>
       </c>
       <c r="V8">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="W8" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>B11111,</v>
+        <v>B01110,</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1455,35 +1455,35 @@
         <v>8</v>
       </c>
       <c r="N9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="4"/>
-        <v>11111</v>
+        <v>00000</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="5"/>
-        <v>1F</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="W9" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>B11111,</v>
+        <v>B00000,</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="W10" s="13" t="str">
         <f>CONCATENATE("0x",U2,", ","0x",U3,", ","0x",U4,", ","0x",U5,", ","0x",U6,", ","0x",U7,", ","0x",,U8,", ","0x",U9)</f>
-        <v>0x7, 0xF, 0x1F, 0x1F, 0x1F, 0x1F, 0x1F, 0x1F</v>
+        <v>0x0, 0xE, 0xA, 0xA, 0xA, 0xA, 0xE, 0x0</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="W11" s="14" t="str">
         <f>CONCATENATE(V2,", ",V3,", ",V4,", ",V5,", ",V6,", ",V7,", ",V8,", ",V9)</f>
-        <v>7, 15, 31, 31, 31, 31, 31, 31</v>
+        <v>0, 14, 10, 10, 10, 10, 14, 0</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -2233,25 +2233,25 @@
       </c>
       <c r="H26" t="str">
         <f>CONCATENATE(B26,C26,D26,E26,F26)</f>
-        <v>00000</v>
+        <v>01000</v>
       </c>
       <c r="I26" t="str">
         <f>BIN2HEX(H26)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <f>BIN2DEC(H26)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K26" s="11" t="str">
         <f>CONCATENATE("B",B26,C26,D26,E26,F26,",")</f>
-        <v>B00000,</v>
+        <v>B01000,</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -2263,23 +2263,23 @@
         <v>0</v>
       </c>
       <c r="R26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="str">
         <f>CONCATENATE(N26,O26,P26,Q26,R26)</f>
-        <v>00000</v>
+        <v>10001</v>
       </c>
       <c r="U26" t="str">
         <f>BIN2HEX(T26)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V26">
         <f>BIN2DEC(T26)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W26" s="11" t="str">
         <f>_xlfn.CONCAT(T26,",")</f>
-        <v>00000,</v>
+        <v>10001,</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2290,32 +2290,32 @@
         <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
       </c>
       <c r="E27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" ref="H27:H33" si="16">CONCATENATE(B27,C27,D27,E27,F27)</f>
-        <v>11111</v>
+        <v>10100</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" ref="I27:I33" si="17">BIN2HEX(H27)</f>
-        <v>1F</v>
+        <v>14</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27:J33" si="18">BIN2DEC(H27)</f>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K27" s="11" t="str">
         <f t="shared" ref="K27:K33" si="19">CONCATENATE("B",B27,C27,D27,E27,F27,",")</f>
-        <v>B11111,</v>
+        <v>B10100,</v>
       </c>
       <c r="M27" s="1">
         <v>2</v>
@@ -2357,10 +2357,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
@@ -2373,31 +2373,31 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="16"/>
-        <v>10000</v>
+        <v>01000</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <f t="shared" si="18"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K28" s="11" t="str">
         <f t="shared" si="19"/>
-        <v>B10000,</v>
+        <v>B01000,</v>
       </c>
       <c r="M28" s="1">
         <v>3</v>
       </c>
       <c r="N28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="6">
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
@@ -2407,19 +2407,19 @@
       </c>
       <c r="T28" t="str">
         <f t="shared" si="20"/>
-        <v>00001</v>
+        <v>10101</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V28">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="W28" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>00001,</v>
+        <v>10101,</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -2427,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2443,19 +2443,19 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="16"/>
-        <v>10000</v>
+        <v>00000</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <f t="shared" si="18"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K29" s="11" t="str">
         <f t="shared" si="19"/>
-        <v>B10000,</v>
+        <v>B00000,</v>
       </c>
       <c r="M29" s="1">
         <v>4</v>
@@ -2473,23 +2473,23 @@
         <v>0</v>
       </c>
       <c r="R29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="str">
         <f t="shared" si="20"/>
-        <v>00001</v>
+        <v>00000</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>00001,</v>
+        <v>00000,</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -2500,32 +2500,32 @@
         <v>0</v>
       </c>
       <c r="C30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="16"/>
-        <v>01000</v>
+        <v>00111</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30">
         <f t="shared" si="18"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K30" s="11" t="str">
         <f t="shared" si="19"/>
-        <v>B01000,</v>
+        <v>B00111,</v>
       </c>
       <c r="M30" s="1">
         <v>5</v>
@@ -2537,29 +2537,29 @@
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="7">
         <v>0</v>
       </c>
       <c r="T30" t="str">
         <f t="shared" si="20"/>
-        <v>00010</v>
+        <v>00100</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V30">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W30" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>00010,</v>
+        <v>00100,</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
         <v>6</v>
       </c>
       <c r="N31" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="6">
         <v>0</v>
@@ -2613,23 +2613,23 @@
         <v>0</v>
       </c>
       <c r="R31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="20"/>
-        <v>00100</v>
+        <v>10101</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="V31">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="W31" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>00100,</v>
+        <v>10101,</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -2643,29 +2643,29 @@
         <v>0</v>
       </c>
       <c r="D32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
       </c>
       <c r="F32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="16"/>
-        <v>00011</v>
+        <v>00110</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J32">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K32" s="11" t="str">
         <f t="shared" si="19"/>
-        <v>B00011,</v>
+        <v>B00110,</v>
       </c>
       <c r="M32" s="1">
         <v>7</v>
@@ -2677,29 +2677,29 @@
         <v>1</v>
       </c>
       <c r="P32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="20"/>
-        <v>11000</v>
+        <v>11111</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>1F</v>
       </c>
       <c r="V32">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="W32" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>11000,</v>
+        <v>11111,</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="9">
         <v>0</v>
@@ -2723,732 +2723,78 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="16"/>
-        <v>00000</v>
+        <v>00100</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K33" s="11" t="str">
         <f t="shared" si="19"/>
-        <v>B00000,</v>
+        <v>B00100,</v>
       </c>
       <c r="M33" s="1">
         <v>8</v>
       </c>
       <c r="N33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="str">
         <f t="shared" si="20"/>
-        <v>00000</v>
+        <v>11111</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1F</v>
       </c>
       <c r="V33">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="W33" s="11" t="str">
         <f>T33</f>
-        <v>00000</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K34" s="13" t="str">
         <f>CONCATENATE("0x",I26,", ","0x",I27,", ","0x",I28,", ","0x",I29,", ","0x",I30,", ","0x",I31,", ","0x",,I32,", ","0x",I33)</f>
-        <v>0x0, 0x1F, 0x10, 0x10, 0x8, 0x4, 0x3, 0x0</v>
+        <v>0x8, 0x14, 0x8, 0x0, 0x7, 0x4, 0x6, 0x4</v>
       </c>
       <c r="W34" s="13" t="str">
         <f>CONCATENATE("0x",U26,", ","0x",U27,", ","0x",U28,", ","0x",U29,", ","0x",U30,", ","0x",U31,", ","0x",,U32,", ","0x",U33)</f>
-        <v>0x0, 0x1F, 0x1, 0x1, 0x2, 0x4, 0x18, 0x0</v>
+        <v>0x11, 0x1F, 0x15, 0x0, 0x4, 0x15, 0x1F, 0x1F</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K35" s="14" t="str">
         <f>CONCATENATE(J26,", ",J27,", ",J28,", ",J29,", ",J30,", ",J31,", ",J32,", ",J33)</f>
-        <v>0, 31, 16, 16, 8, 4, 3, 0</v>
+        <v>8, 20, 8, 0, 7, 4, 6, 4</v>
       </c>
       <c r="W35" s="14" t="str">
         <f>CONCATENATE(V26,", ",V27,", ",V28,", ",V29,", ",V30,", ",V31,", ",V32,", ",V33)</f>
-        <v>0, 31, 1, 1, 2, 4, 24, 0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="V37" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" t="str">
-        <f>CONCATENATE(B38,C38,D38,E38,F38)</f>
-        <v>01000</v>
-      </c>
-      <c r="I38" t="str">
-        <f>BIN2HEX(H38)</f>
-        <v>8</v>
-      </c>
-      <c r="J38">
-        <f>BIN2DEC(H38)</f>
-        <v>8</v>
-      </c>
-      <c r="K38" s="11" t="str">
-        <f>CONCATENATE("B",B38,C38,D38,E38,F38,",")</f>
-        <v>B01000,</v>
-      </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="2">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0</v>
-      </c>
-      <c r="R38" s="4">
-        <v>1</v>
-      </c>
-      <c r="T38" t="str">
-        <f>CONCATENATE(N38,O38,P38,Q38,R38)</f>
-        <v>10001</v>
-      </c>
-      <c r="U38" t="str">
-        <f>BIN2HEX(T38)</f>
-        <v>11</v>
-      </c>
-      <c r="V38">
-        <f>BIN2DEC(T38)</f>
-        <v>17</v>
-      </c>
-      <c r="W38" s="11" t="str">
-        <f>_xlfn.CONCAT(T38,",")</f>
-        <v>10001,</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>2</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" ref="H39:H45" si="24">CONCATENATE(B39,C39,D39,E39,F39)</f>
-        <v>10100</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" ref="I39:I45" si="25">BIN2HEX(H39)</f>
-        <v>14</v>
-      </c>
-      <c r="J39">
-        <f t="shared" ref="J39:J45" si="26">BIN2DEC(H39)</f>
-        <v>20</v>
-      </c>
-      <c r="K39" s="11" t="str">
-        <f t="shared" ref="K39:K45" si="27">CONCATENATE("B",B39,C39,D39,E39,F39,",")</f>
-        <v>B10100,</v>
-      </c>
-      <c r="M39" s="1">
-        <v>2</v>
-      </c>
-      <c r="N39" s="5">
-        <v>1</v>
-      </c>
-      <c r="O39" s="6">
-        <v>1</v>
-      </c>
-      <c r="P39" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>1</v>
-      </c>
-      <c r="R39" s="7">
-        <v>1</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" ref="T39:T45" si="28">CONCATENATE(N39,O39,P39,Q39,R39)</f>
-        <v>11111</v>
-      </c>
-      <c r="U39" t="str">
-        <f t="shared" ref="U39:U45" si="29">BIN2HEX(T39)</f>
-        <v>1F</v>
-      </c>
-      <c r="V39">
-        <f t="shared" ref="V39:V45" si="30">BIN2DEC(T39)</f>
-        <v>31</v>
-      </c>
-      <c r="W39" s="11" t="str">
-        <f t="shared" ref="W39:W44" si="31">_xlfn.CONCAT(T39,",")</f>
-        <v>11111,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>3</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="24"/>
-        <v>01000</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="25"/>
-        <v>8</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="26"/>
-        <v>8</v>
-      </c>
-      <c r="K40" s="11" t="str">
-        <f t="shared" si="27"/>
-        <v>B01000,</v>
-      </c>
-      <c r="M40" s="1">
-        <v>3</v>
-      </c>
-      <c r="N40" s="5">
-        <v>1</v>
-      </c>
-      <c r="O40" s="6">
-        <v>0</v>
-      </c>
-      <c r="P40" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
-        <v>1</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="28"/>
-        <v>10101</v>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="29"/>
-        <v>15</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="30"/>
-        <v>21</v>
-      </c>
-      <c r="W40" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v>10101,</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>4</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="24"/>
-        <v>00000</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="11" t="str">
-        <f t="shared" si="27"/>
-        <v>B00000,</v>
-      </c>
-      <c r="M41" s="1">
-        <v>4</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0</v>
-      </c>
-      <c r="P41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="28"/>
-        <v>00000</v>
-      </c>
-      <c r="U41" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v>00000,</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>5</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="24"/>
-        <v>00111</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="26"/>
-        <v>7</v>
-      </c>
-      <c r="K42" s="11" t="str">
-        <f t="shared" si="27"/>
-        <v>B00111,</v>
-      </c>
-      <c r="M42" s="1">
-        <v>5</v>
-      </c>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
-      <c r="O42" s="6">
-        <v>0</v>
-      </c>
-      <c r="P42" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="28"/>
-        <v>00100</v>
-      </c>
-      <c r="U42" t="str">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="30"/>
-        <v>4</v>
-      </c>
-      <c r="W42" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v>00100,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>6</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="24"/>
-        <v>00100</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="K43" s="11" t="str">
-        <f t="shared" si="27"/>
-        <v>B00100,</v>
-      </c>
-      <c r="M43" s="1">
-        <v>6</v>
-      </c>
-      <c r="N43" s="5">
-        <v>1</v>
-      </c>
-      <c r="O43" s="6">
-        <v>0</v>
-      </c>
-      <c r="P43" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>0</v>
-      </c>
-      <c r="R43" s="7">
-        <v>1</v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="28"/>
-        <v>10101</v>
-      </c>
-      <c r="U43" t="str">
-        <f t="shared" si="29"/>
-        <v>15</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="30"/>
-        <v>21</v>
-      </c>
-      <c r="W43" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v>10101,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>7</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="24"/>
-        <v>00110</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="25"/>
-        <v>6</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="26"/>
-        <v>6</v>
-      </c>
-      <c r="K44" s="11" t="str">
-        <f t="shared" si="27"/>
-        <v>B00110,</v>
-      </c>
-      <c r="M44" s="1">
-        <v>7</v>
-      </c>
-      <c r="N44" s="5">
-        <v>1</v>
-      </c>
-      <c r="O44" s="6">
-        <v>1</v>
-      </c>
-      <c r="P44" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>1</v>
-      </c>
-      <c r="R44" s="7">
-        <v>1</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="28"/>
-        <v>11111</v>
-      </c>
-      <c r="U44" t="str">
-        <f t="shared" si="29"/>
-        <v>1F</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="30"/>
-        <v>31</v>
-      </c>
-      <c r="W44" s="11" t="str">
-        <f t="shared" si="31"/>
-        <v>11111,</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>8</v>
-      </c>
-      <c r="B45" s="8">
-        <v>0</v>
-      </c>
-      <c r="C45" s="9">
-        <v>0</v>
-      </c>
-      <c r="D45" s="9">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="24"/>
-        <v>00100</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="K45" s="11" t="str">
-        <f t="shared" si="27"/>
-        <v>B00100,</v>
-      </c>
-      <c r="M45" s="1">
-        <v>8</v>
-      </c>
-      <c r="N45" s="8">
-        <v>1</v>
-      </c>
-      <c r="O45" s="9">
-        <v>1</v>
-      </c>
-      <c r="P45" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="9">
-        <v>1</v>
-      </c>
-      <c r="R45" s="10">
-        <v>1</v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="28"/>
-        <v>11111</v>
-      </c>
-      <c r="U45" t="str">
-        <f t="shared" si="29"/>
-        <v>1F</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="30"/>
-        <v>31</v>
-      </c>
-      <c r="W45" s="11" t="str">
-        <f>T45</f>
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K46" s="13" t="str">
-        <f>CONCATENATE("0x",I38,", ","0x",I39,", ","0x",I40,", ","0x",I41,", ","0x",I42,", ","0x",I43,", ","0x",,I44,", ","0x",I45)</f>
-        <v>0x8, 0x14, 0x8, 0x0, 0x7, 0x4, 0x6, 0x4</v>
-      </c>
-      <c r="W46" s="13" t="str">
-        <f>CONCATENATE("0x",U38,", ","0x",U39,", ","0x",U40,", ","0x",U41,", ","0x",U42,", ","0x",U43,", ","0x",,U44,", ","0x",U45)</f>
-        <v>0x11, 0x1F, 0x15, 0x0, 0x4, 0x15, 0x1F, 0x1F</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K47" s="14" t="str">
-        <f>CONCATENATE(J38,", ",J39,", ",J40,", ",J41,", ",J42,", ",J43,", ",J44,", ",J45)</f>
-        <v>8, 20, 8, 0, 7, 4, 6, 4</v>
-      </c>
-      <c r="W47" s="14" t="str">
-        <f>CONCATENATE(V38,", ",V39,", ",V40,", ",V41,", ",V42,", ",V43,", ",V44,", ",V45)</f>
         <v>17, 31, 21, 0, 4, 21, 31, 31</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F9">
     <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26:R33">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3457,17 +2803,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F33">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N14:R21">
     <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:R45">
+  <conditionalFormatting sqref="N26:R33">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -3477,7 +2818,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:F45">
+  <conditionalFormatting sqref="B26:F33">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/arduino lcd bin2hex.xlsx
+++ b/arduino lcd bin2hex.xlsx
@@ -207,277 +207,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -851,7 +581,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,8 +1359,8 @@
         <v>0</v>
       </c>
       <c r="W14" s="11" t="str">
-        <f>_xlfn.CONCAT(T14,",")</f>
-        <v>00000,</v>
+        <f>CONCATENATE("B",N14,O14,P14,Q14,R14,",")</f>
+        <v>B00000,</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1699,8 +1429,8 @@
         <v>31</v>
       </c>
       <c r="W15" s="11" t="str">
-        <f t="shared" ref="W15:W20" si="15">_xlfn.CONCAT(T15,",")</f>
-        <v>11111,</v>
+        <f t="shared" ref="W15:W21" si="15">CONCATENATE("B",N15,O15,P15,Q15,R15,",")</f>
+        <v>B11111,</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -1770,7 +1500,7 @@
       </c>
       <c r="W16" s="11" t="str">
         <f t="shared" si="15"/>
-        <v>11111,</v>
+        <v>B11111,</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -1840,7 +1570,7 @@
       </c>
       <c r="W17" s="11" t="str">
         <f t="shared" si="15"/>
-        <v>11111,</v>
+        <v>B11111,</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -1910,7 +1640,7 @@
       </c>
       <c r="W18" s="11" t="str">
         <f t="shared" si="15"/>
-        <v>11110,</v>
+        <v>B11110,</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -1980,7 +1710,7 @@
       </c>
       <c r="W19" s="11" t="str">
         <f t="shared" si="15"/>
-        <v>11100,</v>
+        <v>B11100,</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -2050,7 +1780,7 @@
       </c>
       <c r="W20" s="11" t="str">
         <f t="shared" si="15"/>
-        <v>00000,</v>
+        <v>B00000,</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2119,8 +1849,8 @@
         <v>0</v>
       </c>
       <c r="W21" s="11" t="str">
-        <f>T21</f>
-        <v>00000</v>
+        <f t="shared" si="15"/>
+        <v>B00000,</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2278,8 +2008,8 @@
         <v>17</v>
       </c>
       <c r="W26" s="11" t="str">
-        <f>_xlfn.CONCAT(T26,",")</f>
-        <v>10001,</v>
+        <f>CONCATENATE("B",N26,O26,P26,Q26,R26,",")</f>
+        <v>B10001,</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2348,8 +2078,8 @@
         <v>31</v>
       </c>
       <c r="W27" s="11" t="str">
-        <f t="shared" ref="W27:W32" si="23">_xlfn.CONCAT(T27,",")</f>
-        <v>11111,</v>
+        <f t="shared" ref="W27:W33" si="23">CONCATENATE("B",N27,O27,P27,Q27,R27,",")</f>
+        <v>B11111,</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -2419,7 +2149,7 @@
       </c>
       <c r="W28" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>10101,</v>
+        <v>B10101,</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -2489,7 +2219,7 @@
       </c>
       <c r="W29" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>00000,</v>
+        <v>B00000,</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -2559,7 +2289,7 @@
       </c>
       <c r="W30" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>00100,</v>
+        <v>B00100,</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -2629,7 +2359,7 @@
       </c>
       <c r="W31" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>10101,</v>
+        <v>B10101,</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -2699,7 +2429,7 @@
       </c>
       <c r="W32" s="11" t="str">
         <f t="shared" si="23"/>
-        <v>11111,</v>
+        <v>B11111,</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -2768,8 +2498,8 @@
         <v>31</v>
       </c>
       <c r="W33" s="11" t="str">
-        <f>T33</f>
-        <v>11111</v>
+        <f t="shared" si="23"/>
+        <v>B11111,</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -2794,32 +2524,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F9">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:F21">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:R21">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:R33">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:R9">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:F33">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
